--- a/biology/Zoologie/Amphiprion_leucokranos/Amphiprion_leucokranos.xlsx
+++ b/biology/Zoologie/Amphiprion_leucokranos/Amphiprion_leucokranos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-clown à capuchon blanc
-Poisson-clown à capuchon blanc (Amphiprion leucokranos) est une espèce de poissons osseux de la famille des pomacentridés. Il est présent en Papouasie-Nouvelle-Guinée et dans les îles Salomon. Cette espèce mesure jusqu'à 10 cm[1]. Cette espèce est décrite par Gerald R. Allen en 1973.
+Poisson-clown à capuchon blanc (Amphiprion leucokranos) est une espèce de poissons osseux de la famille des pomacentridés. Il est présent en Papouasie-Nouvelle-Guinée et dans les îles Salomon. Cette espèce mesure jusqu'à 10 cm. Cette espèce est décrite par Gerald R. Allen en 1973.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les couleurs de Amphiprion leucokranos sont dans les tons classiques des poissons-clown : la tête et le corps sont orange sombre tandis que le ventre tire plus sur le jaune ; Les nageoires sont également jaune-orangé. A. leucokranos possède trois tâche caractéristiques de couleur blanches : une bande longitudinale au niveau du front, une barre latérale sur les côtés de la tête et une autre bande à la base de la nageoire dorsale[2].
-Espèces semblables
-La morphologie de Amphiprion leucokranos le rapproche de A.sandaracinos et de A. perideraion[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les couleurs de Amphiprion leucokranos sont dans les tons classiques des poissons-clown : la tête et le corps sont orange sombre tandis que le ventre tire plus sur le jaune ; Les nageoires sont également jaune-orangé. A. leucokranos possède trois tâche caractéristiques de couleur blanches : une bande longitudinale au niveau du front, une barre latérale sur les côtés de la tête et une autre bande à la base de la nageoire dorsale.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Papouasie-Nouvelle-Guinée et dans les îles Salomon[1]
+          <t>Espèces semblables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La morphologie de Amphiprion leucokranos le rapproche de A.sandaracinos et de A. perideraion.
 </t>
         </is>
       </c>
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Papouasie-Nouvelle-Guinée et dans les îles Salomon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amphiprion_leucokranos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphiprion_leucokranos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Nom et étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de l'espèce, leucokranos, a été attribué par Allen dans sa publication. Sa racine est grecque et signifie « casque blanc » ou « capuchon blanc » en référence à la marque blanche sur le front caractéristique de ces individus[4]. Ce nom a été francisé en Poisson-clown à capuchon blanc[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de l'espèce, leucokranos, a été attribué par Allen dans sa publication. Sa racine est grecque et signifie « casque blanc » ou « capuchon blanc » en référence à la marque blanche sur le front caractéristique de ces individus. Ce nom a été francisé en Poisson-clown à capuchon blanc.
 </t>
         </is>
       </c>
